--- a/plan/2.테이블/playerLevelUp.xlsx
+++ b/plan/2.테이블/playerLevelUp.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sinchangseob/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sinchangseob/Documents/gamebusdriver/plan/2.테이블/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="680" yWindow="460" windowWidth="28120" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="24580" yWindow="0" windowWidth="13820" windowHeight="21600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,35 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>health</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -344,12 +373,275 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
